--- a/src/files/streams.xlsx
+++ b/src/files/streams.xlsx
@@ -21,11 +21,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>_x0015_48=8FK</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>feed-1</t>
+  </si>
+  <si>
+    <t>reflux</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>Comp Mole Frac (Methane)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Comp Mole Frac (Ethane)</t>
+  </si>
+  <si>
+    <t>Comp Mole Frac (Propane)</t>
+  </si>
+  <si>
+    <t>Comp Mole Frac (i-Butane)</t>
+  </si>
+  <si>
+    <t>Comp Mole Frac (n-Butane)</t>
+  </si>
+  <si>
+    <t>Comp Mole Frac (i-Pentane)</t>
+  </si>
+  <si>
+    <t>Comp Mole Frac (n-Pentane)</t>
+  </si>
+  <si>
     <t>Reflux @COL1</t>
   </si>
   <si>
@@ -50,28 +176,106 @@
     <t>1 @COL1</t>
   </si>
   <si>
-    <t>Comp Mole Frac (Methane)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Comp Mole Frac (Ethane)</t>
-  </si>
-  <si>
-    <t>Comp Mole Frac (Propane)</t>
-  </si>
-  <si>
-    <t>Comp Mole Frac (i-Butane)</t>
-  </si>
-  <si>
-    <t>Comp Mole Frac (n-Butane)</t>
-  </si>
-  <si>
-    <t>Comp Mole Frac (i-Pentane)</t>
-  </si>
-  <si>
-    <t>Comp Mole Frac (n-Pentane)</t>
+    <t>6 @COL2</t>
+  </si>
+  <si>
+    <t>7 @COL2</t>
+  </si>
+  <si>
+    <t>9 @COL2</t>
+  </si>
+  <si>
+    <t>8 @COL2</t>
+  </si>
+  <si>
+    <t>5 @COL2</t>
+  </si>
+  <si>
+    <t>10 @COL3</t>
+  </si>
+  <si>
+    <t>To Reboiler @COL3</t>
+  </si>
+  <si>
+    <t>Boilup @COL3</t>
+  </si>
+  <si>
+    <t>9 @COL3</t>
+  </si>
+  <si>
+    <t>5 @COL3</t>
+  </si>
+  <si>
+    <t>8 @COL3</t>
+  </si>
+  <si>
+    <t>Reflux @COL4</t>
+  </si>
+  <si>
+    <t>To Condenser @COL4</t>
+  </si>
+  <si>
+    <t>13 @COL4</t>
+  </si>
+  <si>
+    <t>12 @COL4</t>
+  </si>
+  <si>
+    <t>11 @COL4</t>
+  </si>
+  <si>
+    <t>14 @COL4</t>
+  </si>
+  <si>
+    <t>5 @COL5</t>
+  </si>
+  <si>
+    <t>8 @COL5</t>
+  </si>
+  <si>
+    <t>15 @COL5</t>
+  </si>
+  <si>
+    <t>16 @COL5</t>
+  </si>
+  <si>
+    <t>17 @COL5</t>
+  </si>
+  <si>
+    <t>1111 @COL5</t>
+  </si>
+  <si>
+    <t>22 @COL5</t>
+  </si>
+  <si>
+    <t>18 @COL6</t>
+  </si>
+  <si>
+    <t>20 @COL6</t>
+  </si>
+  <si>
+    <t>21 @COL6</t>
+  </si>
+  <si>
+    <t>23 @COL6</t>
+  </si>
+  <si>
+    <t>19 @COL6</t>
+  </si>
+  <si>
+    <t>24 @COL6</t>
+  </si>
+  <si>
+    <t>25 @COL6</t>
+  </si>
+  <si>
+    <t>26 @COL6</t>
+  </si>
+  <si>
+    <t>11111 @COL6</t>
+  </si>
+  <si>
+    <t>2222 @COL6</t>
   </si>
   <si>
     <t>Vapour Fraction</t>
@@ -134,7 +338,7 @@
     <t>Case:</t>
   </si>
   <si>
-    <t>C:\Program Files\AspenTech\Aspen HYSYS V12.0\Cases\NoName.hsc</t>
+    <t>C:\Users\AkhmetovRF\Desktop\12.hsc</t>
   </si>
   <si>
     <t>Flowsheet:</t>
@@ -150,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +505,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -645,7 +854,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,6 +863,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +1189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,15 +1197,24 @@
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1021,229 +1242,853 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5215034895384662E-3</v>
+      </c>
+      <c r="E3" s="1">
         <v>3.5569447393232967E-4</v>
       </c>
-      <c r="D3" s="1">
-        <v>4.6598960910502693E-4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.314359967201672E-9</v>
-      </c>
       <c r="F3" s="1">
-        <v>1.0794819193096172E-9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.5215034895384662E-3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.5569447393232967E-4</v>
-      </c>
-      <c r="I3" s="1">
         <v>1.9403168745038811E-10</v>
       </c>
+      <c r="G3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
       <c r="J3" s="1">
+        <v>3.9108459812901383E-5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7.6430898537135472E-4</v>
+      </c>
+      <c r="L3" s="4">
         <v>4.2565203933297259E-4</v>
       </c>
+      <c r="M3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.1335160756376826E-14</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8.4482190098881843E-4</v>
+      </c>
+      <c r="P3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5.6350145497253447E-4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4.0661409146231641E-5</v>
+      </c>
+      <c r="S3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="T3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="U3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>7.708984213058704E-4</v>
+      </c>
+      <c r="W3" s="1">
+        <v>4.2222656403804565E-5</v>
+      </c>
+      <c r="X3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>6.402995276740827E-5</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>4.2645938122210173E-5</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>7.6984205449204712E-4</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>4.2209996989790735E-5</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>4.2565203933297259E-4</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>6.2516487580930704E-5</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>6.2516487580930704E-5</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.58384452795103836</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.30259195374942871</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.3169149113443549</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.416561696643958E-4</v>
-      </c>
       <c r="F4" s="1">
-        <v>1.2037573557494192E-4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.58384452795103836</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.30259195374942871</v>
-      </c>
-      <c r="I4" s="1">
         <v>4.0152123927625517E-5</v>
       </c>
+      <c r="G4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
       <c r="J4" s="1">
+        <v>5.000447204788705E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.36026798890652717</v>
+      </c>
+      <c r="L4" s="4">
         <v>0.21537993190248414</v>
       </c>
+      <c r="M4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8.0612148891672137E-5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.42740049738986713</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.27465093464520202</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4.9845819248835153E-2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.36036588652054041</v>
+      </c>
+      <c r="W4" s="1">
+        <v>5.4357428372939713E-2</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>8.6397879706400241E-2</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5.9711824446434761E-2</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.36031229183109958</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>5.3917293676746622E-2</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0.21537993190248414</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>9.0373261932443522E-2</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>9.0373261932443522E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.35408376279324855</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.4828577834167343</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.47629988846429128</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.2058483563872159E-2</v>
-      </c>
       <c r="F5" s="1">
-        <v>1.0706816246053704E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.35408376279324855</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.4828577834167343</v>
-      </c>
-      <c r="I5" s="1">
         <v>5.6112606983980476E-3</v>
       </c>
+      <c r="G5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
       <c r="J5" s="1">
+        <v>0.14755679798086219</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.41758562026448398</v>
+      </c>
+      <c r="L5" s="4">
         <v>0.29148651653521962</v>
       </c>
+      <c r="M5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.15551344220180305</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.42538888159714133</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.34690639202549217</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.1367079656731775</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.39801866894279458</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.17316358544426971</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.23509045020338232</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.21477377402344669</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.3995483603503332</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.17109477182659363</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0.29148651653521962</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.26866270243627249</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.26866270243627249</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.863227498528583E-4</v>
+      </c>
+      <c r="E6" s="1">
         <v>2.1492087284172776E-3</v>
       </c>
-      <c r="D6" s="1">
-        <v>2.0798029349481484E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.2878504897769658E-3</v>
-      </c>
       <c r="F6" s="1">
-        <v>1.1996318474339525E-3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>7.863227498528583E-4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.1492087284172776E-3</v>
-      </c>
-      <c r="I6" s="1">
         <v>8.6706259280174979E-4</v>
       </c>
+      <c r="G6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
       <c r="J6" s="1">
+        <v>1.6895422953106072E-3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.4080423738944041E-3</v>
+      </c>
+      <c r="L6" s="4">
         <v>1.5394982958594951E-3</v>
       </c>
+      <c r="M6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.2039423021784428E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8.8517298672393546E-4</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.6294368182115922E-3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.2883148705417206E-3</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1.3874817130374352E-3</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1.7082889477604128E-3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.7860115797942496E-3</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.9230490394274839E-3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1.3899826346154848E-3</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1.7060375172430629E-3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>1.5394982958594951E-3</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>2.092239825093383E-3</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>2.092239825093383E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.7706411078116186E-2</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.20401058183465323</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.19655995337496632</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.3866800791930749</v>
-      </c>
       <c r="F7" s="1">
-        <v>0.36728833321567744</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5.7706411078116186E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.20401058183465323</v>
-      </c>
-      <c r="I7" s="1">
         <v>0.2941847540351617</v>
       </c>
+      <c r="G7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
       <c r="J7" s="1">
+        <v>0.30591517412964031</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.15247922483907023</v>
+      </c>
+      <c r="L7" s="4">
         <v>0.22413133783117006</v>
       </c>
+      <c r="M7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.35407961381726771</v>
+      </c>
+      <c r="O7" s="1">
+        <v>9.6162020555967273E-2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.21976887615478166</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.23631497214086994</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.16162566574834969</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.29354705425670335</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.2863180910840189</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.31145609430096916</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.16183494191641082</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.29352963706593965</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0.22413133783117006</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.32560740611007499</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.32560740611007499</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.226475386789531E-4</v>
+      </c>
+      <c r="E8" s="1">
         <v>5.114549427666204E-3</v>
       </c>
-      <c r="D8" s="1">
-        <v>4.8908891653713284E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.25943386388401513</v>
-      </c>
       <c r="F8" s="1">
-        <v>0.26537372473164167</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7.226475386789531E-4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5.114549427666204E-3</v>
-      </c>
-      <c r="I8" s="1">
         <v>0.28776598834224359</v>
       </c>
+      <c r="G8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
       <c r="J8" s="1">
+        <v>0.20166185524787625</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.1333029377017284E-2</v>
+      </c>
+      <c r="L8" s="4">
         <v>0.1108738432054527</v>
       </c>
+      <c r="M8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.200194749458771</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2.2913188822762203E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>7.0265844773851269E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.22428526997335571</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="V8" s="1">
+        <v>3.6346610703056871E-2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.19364812314751292</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.16142253935110443</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.17127849452670368</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>3.5605716476028441E-2</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.19472947412160468</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0.1108738432054527</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0.13568892821584627</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.13568892821584627</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.3482439952664663E-4</v>
+      </c>
+      <c r="E9" s="1">
         <v>2.9202283691679202E-3</v>
       </c>
-      <c r="D9" s="1">
-        <v>2.7885651069629622E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.34039806538523654</v>
-      </c>
       <c r="F9" s="1">
-        <v>0.35531111714413638</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3.3482439952664663E-4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2.9202283691679202E-3</v>
-      </c>
-      <c r="I9" s="1">
         <v>0.41153078201343563</v>
       </c>
+      <c r="G9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
       <c r="J9" s="1">
+        <v>0.29313304983861066</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.6161785253635788E-2</v>
+      </c>
+      <c r="L9" s="4">
         <v>0.15616322019048098</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.28792764007106691</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.6405416746549525E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>8.6215014127488887E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.35151699668407377</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="V9" s="1">
+        <v>4.1484787950915231E-2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.28353329717441011</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.22892099812253242</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.24081411772489614</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>4.0538864737020515E-2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.28498057579488262</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0.15616322019048098</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.17751294499268833</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.17751294499268833</v>
       </c>
     </row>
   </sheetData>
@@ -1253,17 +2098,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:BZ12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="66" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="76" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,325 +2151,2569 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>0.57568548648593232</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
+        <v>1.5481881137424658E-5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="J3" s="1">
+        <v>7.7350305712764467E-6</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.4954945201095526E-6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1.0875709675284284E-5</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.57568548648593232</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
         <v>0.57568545044008002</v>
       </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0.57568545044008002</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1">
+        <v>34.763272665428644</v>
+      </c>
+      <c r="E4" s="1">
+        <v>34.762035678961468</v>
+      </c>
+      <c r="F4" s="1">
+        <v>143.43715501676962</v>
+      </c>
+      <c r="G4" s="4">
+        <v>90</v>
+      </c>
+      <c r="H4" s="4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4">
+        <v>150</v>
+      </c>
+      <c r="J4" s="1">
+        <v>106.48531949507651</v>
+      </c>
+      <c r="K4" s="1">
+        <v>68.143297143949212</v>
+      </c>
+      <c r="L4" s="4">
+        <v>90</v>
+      </c>
+      <c r="M4" s="4">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1">
+        <v>114.45513403802795</v>
+      </c>
+      <c r="O4" s="1">
+        <v>55.770898722858362</v>
+      </c>
+      <c r="P4" s="4">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>88.112329475962326</v>
+      </c>
+      <c r="R4" s="1">
+        <v>112.27450383461235</v>
+      </c>
+      <c r="S4" s="4">
+        <v>150</v>
+      </c>
+      <c r="T4" s="4">
+        <v>30</v>
+      </c>
+      <c r="U4" s="4">
+        <v>150</v>
+      </c>
+      <c r="V4" s="1">
+        <v>72.664923449413493</v>
+      </c>
+      <c r="W4" s="1">
+        <v>106.09907942905096</v>
+      </c>
+      <c r="X4" s="4">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>90.3653628942767</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>99.100930475813868</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>150</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>71.367387107038269</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>106.45674360477801</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>90</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>90</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>83.192222152942975</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>83.192222152942975</v>
+      </c>
+      <c r="AK4" s="1">
         <v>34.763272665956606</v>
       </c>
-      <c r="D4" s="1">
+      <c r="AL4" s="1">
         <v>61.370963808663589</v>
       </c>
-      <c r="E4" s="1">
+      <c r="AM4" s="1">
         <v>143.43715501676894</v>
       </c>
-      <c r="F4" s="1">
+      <c r="AN4" s="1">
         <v>139.10894195457149</v>
       </c>
-      <c r="G4" s="1">
+      <c r="AO4" s="1">
         <v>34.763272665956606</v>
       </c>
-      <c r="H4" s="1">
+      <c r="AP4" s="1">
         <v>34.763272665956606</v>
       </c>
-      <c r="I4" s="1">
+      <c r="AQ4" s="1">
         <v>143.43715501676894</v>
       </c>
-      <c r="J4" s="1">
+      <c r="AR4" s="1">
         <v>90.000003395119734</v>
       </c>
+      <c r="AS4" s="1">
+        <v>30.000000000000227</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>149.99999999999989</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>68.143297143949667</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>106.4857901080311</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>55.770898722858988</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>105.67628134624402</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>114.45522899470922</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>114.45522899470922</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>30.000000000000227</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>88.112329475962497</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>92.426237119485677</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>112.27450383461229</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>88.112329475962497</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>149.99999999999989</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>30.000000000000227</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>149.99999999999989</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>72.664923449447997</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>106.09907942905079</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>90.366041092894989</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>99.100930475813811</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>30.000000000000227</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>149.99999999999989</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>71.367387107087097</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>106.45674360477796</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>90.000003395119734</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>83.192222152943089</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>83.192222152943089</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.9</v>
+        <v>89</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>1.9</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
         <v>1.9</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.726</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1.9727272727272727</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1.9909090909090905</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1">
         <v>1.9</v>
       </c>
-      <c r="I5" s="1">
+      <c r="AE5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="AF5" s="4">
         <v>2</v>
       </c>
+      <c r="AG5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>1.9142857142857139</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1.9142857142857139</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>1.726</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>1.9727272727272727</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>1.9909090909090905</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>1.9142857142857139</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>1.9142857142857139</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27.259140535982141</v>
+      </c>
+      <c r="E6" s="1">
+        <v>153.81995773811715</v>
+      </c>
+      <c r="F6" s="1">
+        <v>108.93935967194788</v>
+      </c>
+      <c r="G6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="H6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="I6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="J6" s="1">
+        <v>406.30182329419466</v>
+      </c>
+      <c r="K6" s="1">
+        <v>463.7535505439468</v>
+      </c>
+      <c r="L6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="M6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="N6" s="1">
+        <v>287.79319465006489</v>
+      </c>
+      <c r="O6" s="1">
+        <v>292.24372124202955</v>
+      </c>
+      <c r="P6" s="4">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>581.7261061231909</v>
+      </c>
+      <c r="R6" s="1">
+        <v>208.29235182285626</v>
+      </c>
+      <c r="S6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="T6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="U6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="V6" s="1">
+        <v>568.31514866478312</v>
+      </c>
+      <c r="W6" s="1">
+        <v>511.62005363939346</v>
+      </c>
+      <c r="X6" s="4">
+        <v>500</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.7278747195809574E-2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>8.4434840721695811E-2</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>500</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>569.99185431821991</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>511.60948741352246</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1.7787080175955369E-2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1.7787080175955369E-2</v>
+      </c>
+      <c r="AK6" s="1">
         <v>354.19466731913849</v>
       </c>
-      <c r="D6" s="1">
+      <c r="AL6" s="1">
         <v>535.27376559323784</v>
       </c>
-      <c r="E6" s="1">
+      <c r="AM6" s="1">
         <v>410.68282943348282</v>
       </c>
-      <c r="F6" s="1">
+      <c r="AN6" s="1">
         <v>519.62218910543072</v>
       </c>
-      <c r="G6" s="1">
+      <c r="AO6" s="1">
         <v>27.259140535982141</v>
       </c>
-      <c r="H6" s="1">
+      <c r="AP6" s="1">
         <v>153.81995773811715</v>
       </c>
-      <c r="I6" s="1">
+      <c r="AQ6" s="1">
         <v>108.93935967194788</v>
       </c>
-      <c r="J6" s="1">
+      <c r="AR6" s="1">
         <v>290.01845794604719</v>
       </c>
+      <c r="AS6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>463.7535505439468</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>406.30182329419466</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>292.24372124202955</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>521.23910762576861</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>233.44591297570372</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>287.79319465006489</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>78.078827055583332</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>659.80493317877438</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>208.29235182285626</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>581.7261061231909</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>500</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>568.31514866478312</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>511.62005363939346</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>500</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>1.7278747195809574E-2</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>8.4434840721695811E-2</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>290.01845794604719</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>569.99185431821991</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>511.60948741352246</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>500</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>1.7787080175955369E-2</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>1.7787080175955369E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000.0495516117783</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6608.0661743324763</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7391.8842740557466</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>25024.224142936651</v>
+      </c>
+      <c r="K7" s="1">
+        <v>19975.77585706336</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="N7" s="1">
+        <v>18069.741791407308</v>
+      </c>
+      <c r="O7" s="1">
+        <v>11930.258208592704</v>
+      </c>
+      <c r="P7" s="1">
+        <v>25860.422998991478</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>27762.357163588869</v>
+      </c>
+      <c r="R7" s="1">
+        <v>13098.06583540262</v>
+      </c>
+      <c r="S7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="T7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="U7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="V7" s="1">
+        <v>24716.339916410809</v>
+      </c>
+      <c r="W7" s="1">
+        <v>31138.083275936777</v>
+      </c>
+      <c r="X7" s="1">
+        <v>25860.422998991478</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.0000114068969901</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4.9997952369910736</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>25860.422998991478</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>24764.426245614286</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>31176.750455664805</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>25.860422998991478</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>5.1720845997982954</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.99982565458457728</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.99982565458457728</v>
+      </c>
+      <c r="AK7" s="1">
         <v>15216.112620609234</v>
       </c>
-      <c r="D7" s="1">
+      <c r="AL7" s="1">
         <v>22824.228346553493</v>
       </c>
-      <c r="E7" s="1">
+      <c r="AM7" s="1">
         <v>27254.852968451076</v>
       </c>
-      <c r="F7" s="1">
+      <c r="AN7" s="1">
         <v>34646.737242506817</v>
       </c>
-      <c r="G7" s="1">
+      <c r="AO7" s="1">
         <v>1000.0495516117783</v>
       </c>
-      <c r="H7" s="1">
+      <c r="AP7" s="1">
         <v>6608.0661743324763</v>
       </c>
-      <c r="I7" s="1">
+      <c r="AQ7" s="1">
         <v>7391.8842740557466</v>
       </c>
-      <c r="J7" s="1">
+      <c r="AR7" s="1">
         <v>15000.000000000002</v>
       </c>
+      <c r="AS7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>19975.77585706336</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>25024.224142936651</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>11930.258208592704</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>31622.656159844406</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>13552.91436843709</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>18069.741791407308</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>4543.4981978678134</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>32305.855361456681</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>13098.06583540262</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>27762.357163588869</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>25860.422998991478</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>24716.339916410809</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>31138.083275936777</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>25860.422998991478</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>1.0000114068969901</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>4.9997952369910736</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>15000.000000000002</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>24764.426245614286</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>31176.750455664805</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>25860.422998991478</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>25.860422998991478</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>5.1720845997982954</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>0.99982565458457728</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>0.99982565458457728</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1">
+        <v>-9.6500856306542726</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.72059907347330154</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-5.0193602687222327</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-4.3816342322341377</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-9.6500856306542726</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-15.954943727671745</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-13.158487440111221</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-9.6500856306542726</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-11.339121728240722</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-8.0879783937012935</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-16.637019759013924</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-17.360677246098202</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-8.2500980827187966</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-16.186964303800895</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-19.908750311050316</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-16.637019759013924</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-6.5990084696283E-4</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>-3.2449362456273036E-3</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>-16.637019759013924</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>-16.232495488460309</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>-19.918839355559918</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>-3.3274039518027848E-2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>-1.6637019759013924E-2</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>-3.3274039518027851E-3</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>-6.6999489685124868E-4</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>-6.6999489685124868E-4</v>
+      </c>
+      <c r="AK8" s="1">
         <v>-11.557867175869207</v>
       </c>
-      <c r="D8" s="1">
+      <c r="AL8" s="1">
         <v>-15.155945207783612</v>
       </c>
-      <c r="E8" s="1">
+      <c r="AM8" s="1">
         <v>-14.690775230720808</v>
       </c>
-      <c r="F8" s="1">
+      <c r="AN8" s="1">
         <v>-20.742808071085051</v>
       </c>
-      <c r="G8" s="1">
+      <c r="AO8" s="1">
         <v>-0.72059907347330154</v>
       </c>
-      <c r="H8" s="1">
+      <c r="AP8" s="1">
         <v>-5.0193602687222318</v>
       </c>
-      <c r="I8" s="1">
+      <c r="AQ8" s="1">
         <v>-4.3816342322341377</v>
       </c>
-      <c r="J8" s="1">
+      <c r="AR8" s="1">
         <v>-9.6500856306542726</v>
       </c>
+      <c r="AS8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>-13.158487440111221</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>-15.954943727671742</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>-9.6500856306542726</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>-8.0879783937012935</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>-20.217843459878289</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>-7.7572273387012807</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>-11.339121728240722</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>-9.6500856306542726</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>-3.0034145799736045</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>-19.955004038533655</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>-8.2500980827187966</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>-17.360677246098202</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>-16.637019759013924</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>-16.186964303800895</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>-19.908750311050316</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>-16.637019759013924</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>-6.599008469628301E-4</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>-3.2449362456273036E-3</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>-10.898396608519176</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>-8.5646358253835899</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>-16.232495488460309</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>-19.918839355559918</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>-16.637019759013924</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>-3.3274039518027848E-2</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>-1.6637019759013924E-2</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>-3.3274039518027851E-3</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>-6.6999489685124868E-4</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>-6.6999489685124868E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36.686760182028117</v>
+      </c>
+      <c r="E9" s="1">
         <v>42.959745090964702</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
+        <v>67.853201049787089</v>
+      </c>
+      <c r="G9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="H9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="I9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="J9" s="1">
+        <v>61.590233437906903</v>
+      </c>
+      <c r="K9" s="1">
+        <v>43.074119505140885</v>
+      </c>
+      <c r="L9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="M9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="N9" s="1">
+        <v>62.78724489430256</v>
+      </c>
+      <c r="O9" s="1">
+        <v>40.822975282032964</v>
+      </c>
+      <c r="P9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>47.724103957799159</v>
+      </c>
+      <c r="R9" s="1">
+        <v>62.883085820366396</v>
+      </c>
+      <c r="S9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="T9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="U9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="V9" s="1">
+        <v>43.490552688029041</v>
+      </c>
+      <c r="W9" s="1">
+        <v>60.861733339881788</v>
+      </c>
+      <c r="X9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>57.875226459677123</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>59.214835893050477</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>43.446982720894447</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>60.93856979330279</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>56.210780223285035</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>56.210780223285035</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>42.959745090964702</v>
+      </c>
+      <c r="AL9" s="1">
         <v>42.640289537182269</v>
       </c>
-      <c r="E9" s="1">
+      <c r="AM9" s="1">
         <v>66.364724831685393</v>
       </c>
-      <c r="F9" s="1">
+      <c r="AN9" s="1">
         <v>66.676785497081681</v>
       </c>
-      <c r="G9" s="1">
+      <c r="AO9" s="1">
         <v>36.686760182028117</v>
       </c>
-      <c r="H9" s="1">
+      <c r="AP9" s="1">
         <v>42.959745090964702</v>
       </c>
-      <c r="I9" s="1">
+      <c r="AQ9" s="1">
         <v>67.853201049787089</v>
       </c>
-      <c r="J9" s="1">
+      <c r="AR9" s="1">
         <v>51.720845997982956</v>
       </c>
+      <c r="AS9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>43.074119505140885</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>61.590233437906903</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>40.822975282032964</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>60.668234016217298</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>58.055907664777294</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>62.78724489430256</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>58.191168709967357</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>48.962736919554672</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>62.883085820366396</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>47.724103957799159</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>43.490552688029041</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>60.861733339881788</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>57.875226459677123</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>59.214835893050477</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>43.446982720894447</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>60.93856979330279</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>51.720845997982956</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>56.210780223285035</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>56.210780223285035</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35.837920055527213</v>
+      </c>
+      <c r="E10" s="1">
+        <v>469.33294837734331</v>
+      </c>
+      <c r="F10" s="1">
+        <v>440.20823321122646</v>
+      </c>
+      <c r="G10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="H10" s="1">
+        <v>536.92500639256332</v>
+      </c>
+      <c r="I10" s="1">
+        <v>35.498661930735075</v>
+      </c>
+      <c r="J10" s="1">
+        <v>472.48981619435727</v>
+      </c>
+      <c r="K10" s="1">
+        <v>36.474446102580771</v>
+      </c>
+      <c r="L10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="M10" s="1">
+        <v>536.92500639256332</v>
+      </c>
+      <c r="N10" s="1">
+        <v>465.5327811740346</v>
+      </c>
+      <c r="O10" s="1">
+        <v>32.787384398492421</v>
+      </c>
+      <c r="P10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>38.78569076634507</v>
+      </c>
+      <c r="R10" s="1">
+        <v>469.66210030062211</v>
+      </c>
+      <c r="S10" s="1">
+        <v>35.498661930735075</v>
+      </c>
+      <c r="T10" s="1">
+        <v>536.92500639256332</v>
+      </c>
+      <c r="U10" s="1">
+        <v>35.498661930735075</v>
+      </c>
+      <c r="V10" s="1">
+        <v>38.737842242424662</v>
+      </c>
+      <c r="W10" s="1">
+        <v>468.62483433246359</v>
+      </c>
+      <c r="X10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>477.99331160212716</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>471.01043473063157</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>536.92500639256332</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>35.498661930735075</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>37.621077412620863</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>468.45107482766036</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>73.272091988234806</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>480.1743086508651</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>480.1743086508651</v>
+      </c>
+      <c r="AK10" s="1">
         <v>469.40500248375332</v>
       </c>
-      <c r="D10" s="1">
+      <c r="AL10" s="1">
         <v>38.923978501378336</v>
       </c>
-      <c r="E10" s="1">
+      <c r="AM10" s="1">
         <v>58.923582091422382</v>
       </c>
-      <c r="F10" s="1">
+      <c r="AN10" s="1">
         <v>441.82841193005078</v>
       </c>
-      <c r="G10" s="1">
+      <c r="AO10" s="1">
         <v>35.838117120255973</v>
       </c>
-      <c r="H10" s="1">
+      <c r="AP10" s="1">
         <v>469.40500248375332</v>
       </c>
-      <c r="I10" s="1">
+      <c r="AQ10" s="1">
         <v>440.20820907885468</v>
       </c>
-      <c r="J10" s="1">
+      <c r="AR10" s="1">
         <v>73.272095995727113</v>
       </c>
+      <c r="AS10" s="1">
+        <v>536.92499843504027</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>35.498661930735111</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>36.474437956636294</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>472.51954681471642</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>32.787371262179548</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>468.46249927231872</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>45.366980461985683</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>465.53872106280977</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>536.92499843504027</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>483.93581744086055</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>39.526352089262723</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>469.66210071041212</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>38.785689239159041</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>35.498661930735111</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>536.92499843504027</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>35.498661930735111</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>38.737912286749832</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>468.62484805496877</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>478.03651895519459</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>471.01044311293714</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>536.92499843504027</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>35.498661930735111</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>37.620989860631767</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>468.45108825354305</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>73.272095995727113</v>
+      </c>
+      <c r="BY10" s="1">
+        <v>480.17430941390245</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>480.17430941390245</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>189.83115059942864</v>
       </c>
       <c r="D11" s="1">
+        <v>27.904787723793767</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.4378087306298713E-3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="1">
+        <v>189.83115059942864</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="1">
+        <v>422.55113810396495</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.8499032460993692E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>547.66495427739915</v>
+      </c>
+      <c r="L11" s="1">
+        <v>189.83115059942864</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5.5077208928399626E-4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>363.86733578971501</v>
+      </c>
+      <c r="P11" s="1">
+        <v>327.27425685909861</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>715.78864821143475</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="1">
+        <v>422.55113810396495</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" s="1">
+        <v>422.55113810396495</v>
+      </c>
+      <c r="V11" s="1">
+        <v>638.04121462764704</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="1">
+        <v>327.27425685909861</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2.1611617225266222E-7</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>327.27425685909861</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>422.55113810396495</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>658.2593574873664</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0.65454851371819722</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.32727425685909861</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>6.5454851371819722E-2</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL11" s="1">
         <v>586.37963603194532</v>
       </c>
-      <c r="E11" s="1">
+      <c r="AM11" s="1">
         <v>462.54575843953342</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="AN11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO11" s="1">
         <v>27.904634282433957</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="AP11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR11" s="1">
         <v>189.83113824446178</v>
       </c>
+      <c r="AS11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>422.55113810396455</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>547.66507658903879</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>189.83113824446178</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>363.8674815737466</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>298.7396170171271</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>189.83113824446178</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>817.32448490313664</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>715.78867639560383</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>327.27423555878738</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>422.55113810396455</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>422.55113810396455</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>638.04006094734598</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>327.27423555878738</v>
+      </c>
+      <c r="BO11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>422.55113810396455</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>658.26088939591807</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>327.27423555878738</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>0.65454847111757464</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>0.32727423555878732</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>6.5454847111757475E-2</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1">
+        <v>4.1347956994979241E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.9103500529705159E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.6643861525699042E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.1347956994979241E-3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.7602395438075046E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.4710725704336687E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4.1347956994979241E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7.7602395438075046E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.0781843298490927E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>7.1285043868951434E-3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>7.7467430704251635E-3</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>7.7602395438075046E-3</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.845712592028954E-2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>7.1285043868951434E-3</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>5.8107978625419986E-7</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>2.9486225948891428E-6</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>7.7602395438075046E-3</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>7.1285043868951434E-3</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1.8486900607695086E-2</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1.4257008773790287E-5</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>7.1285043868951436E-6</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1.4257008773790287E-6</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>5.7839277006728202E-7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>5.7839277006728202E-7</v>
+      </c>
+      <c r="AK12" s="1">
         <v>9.0043734681236661E-3</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
         <v>2.1782423716104928E-2</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
         <v>3.9104268757300005E-3</v>
       </c>
-      <c r="I12" s="1">
+      <c r="AQ12" s="1">
         <v>4.6643864082732247E-3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="AR12" s="1">
         <v>4.1347960212623066E-3</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>7.7602396588185123E-3</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>1.4710869465393017E-2</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>4.1347960212623066E-3</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>1.8750852350309745E-2</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>1.0781858721389058E-2</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>4.1347960212623066E-3</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>7.7602396588185123E-3</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>2.6079549957991948E-3</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>7.7467430636659678E-3</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>7.1285049416260132E-3</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>7.7602396588185123E-3</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>1.8457125379818827E-2</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>7.1285049416260132E-3</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>5.8108729217466094E-7</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>2.9486225424141799E-6</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>7.7602396588185123E-3</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>1.8486900077857575E-2</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>7.1285049416260132E-3</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>1.4257009883252024E-5</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>7.128504941626012E-6</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>1.4257009883252026E-6</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>5.7839276914816731E-7</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>5.7839276914816731E-7</v>
       </c>
     </row>
   </sheetData>
@@ -1631,26 +4735,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
